--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.24.24403/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.24.24403/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\LDO\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.24.2440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D087F5-2395-4CEB-ABA1-690B1299E783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9FE9D-54EE-491C-8E87-695AB7FE49D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
             <sz val="11"/>
             <color theme="1"/>
             <rFont val="Calibri"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>======
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="167">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -79,6 +80,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>3) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
     DATA ESECUZIONE, 
@@ -91,6 +93,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>o il WORKFLOWINSTANCEID puo' essere lasciato blank)</t>
     </r>
@@ -99,6 +102,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, 
     ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) ,
@@ -137,6 +141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Obiettivo</t>
     </r>
@@ -145,6 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
     </r>
@@ -154,6 +160,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>client</t>
     </r>
@@ -162,6 +169,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
     </r>
@@ -188,6 +196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali HL7 - http://www.hl7italia.it/hl7italia_D7/node/2359 e coerentemente ai casi di test descritti.</t>
     </r>
@@ -196,6 +205,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -663,14 +673,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.4a8cce2564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>In LDO è riportato un riassunto testuale della terapia alla dimissione
-Non è quindi possibile valorizzare l'entry con dati strutturati</t>
-  </si>
-  <si>
-    <t>In LDO la sezione "inquadramento clinico iniziale" riporta un riassunto testuale non strutturato delle informazioni.
-Non è quindi possibile valorizzare l'entry con dati strutturati</t>
   </si>
   <si>
     <t>Riportato errore da applicativo</t>
@@ -698,7 +700,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,38 +719,45 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1120,6 +1129,37 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1137,37 +1177,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1470,69 +1479,69 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="130.140625" customWidth="1"/>
     <col min="2" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="90">
+    <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="195">
+    <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="45">
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
@@ -1549,27 +1558,27 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="194.140625" customWidth="1"/>
     <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>6</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>7</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="45">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>8</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>9</v>
       </c>
@@ -1641,7 +1650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -1660,13 +1669,13 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="K25" sqref="K25:K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
@@ -1682,7 +1691,7 @@
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -1700,15 +1709,15 @@
       <c r="S1" s="2"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="18.75">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="34"/>
+      <c r="D2" s="45"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1725,15 +1734,15 @@
       <c r="S2" s="2"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="15.75">
-      <c r="A3" s="36" t="s">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="53" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="45"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1750,13 +1759,13 @@
       <c r="S3" s="2"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="42" t="s">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1774,13 +1783,13 @@
       <c r="S4" s="2"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" ht="15.75">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42" t="s">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="45"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1797,9 +1806,9 @@
       <c r="S5" s="2"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="43"/>
-      <c r="B6" s="44"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1817,7 +1826,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -1837,7 +1846,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1854,7 +1863,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="38.25" thickBot="1">
+    <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -1916,7 +1925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150.75" thickBot="1">
+    <row r="10" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>6</v>
       </c>
@@ -1929,7 +1938,7 @@
       <c r="D10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>49</v>
       </c>
       <c r="F10" s="23">
@@ -1960,7 +1969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="150.75" thickBot="1">
+    <row r="11" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>7</v>
       </c>
@@ -1973,7 +1982,7 @@
       <c r="D11" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="34" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="23">
@@ -2004,7 +2013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="150.75" thickBot="1">
+    <row r="12" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>8</v>
       </c>
@@ -2017,13 +2026,13 @@
       <c r="D12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="34" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="23">
         <v>45265</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="33" t="s">
         <v>155</v>
       </c>
       <c r="H12" s="24" t="s">
@@ -2048,7 +2057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="150.75" thickBot="1">
+    <row r="13" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>9</v>
       </c>
@@ -2061,7 +2070,7 @@
       <c r="D13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="34" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="23">
@@ -2092,7 +2101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>29</v>
       </c>
@@ -2113,8 +2122,8 @@
       <c r="J14" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="47" t="s">
-        <v>163</v>
+      <c r="K14" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -2128,7 +2137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>37</v>
       </c>
@@ -2149,8 +2158,8 @@
       <c r="J15" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K15" s="47" t="s">
-        <v>163</v>
+      <c r="K15" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -2164,7 +2173,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="90.75" thickBot="1">
+    <row r="16" spans="1:20" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>45</v>
       </c>
@@ -2187,15 +2196,15 @@
       <c r="J16" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="47" t="s">
-        <v>163</v>
+      <c r="K16" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26" t="s">
@@ -2206,7 +2215,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="120.75" thickBot="1">
+    <row r="17" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>63</v>
       </c>
@@ -2229,8 +2238,8 @@
       <c r="J17" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K17" s="47" t="s">
-        <v>164</v>
+      <c r="K17" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -2244,7 +2253,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="120">
+    <row r="18" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>64</v>
       </c>
@@ -2267,8 +2276,8 @@
       <c r="J18" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K18" s="47" t="s">
-        <v>164</v>
+      <c r="K18" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -2282,7 +2291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="120">
+    <row r="19" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>65</v>
       </c>
@@ -2305,8 +2314,8 @@
       <c r="J19" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K19" s="47" t="s">
-        <v>164</v>
+      <c r="K19" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -2320,7 +2329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="120">
+    <row r="20" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>66</v>
       </c>
@@ -2343,8 +2352,8 @@
       <c r="J20" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="47" t="s">
-        <v>164</v>
+      <c r="K20" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -2358,7 +2367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="120">
+    <row r="21" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>67</v>
       </c>
@@ -2381,8 +2390,8 @@
       <c r="J21" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K21" s="47" t="s">
-        <v>164</v>
+      <c r="K21" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -2396,7 +2405,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="120">
+    <row r="22" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>68</v>
       </c>
@@ -2419,8 +2428,8 @@
       <c r="J22" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="47" t="s">
-        <v>164</v>
+      <c r="K22" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -2434,7 +2443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="120">
+    <row r="23" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>69</v>
       </c>
@@ -2457,8 +2466,8 @@
       <c r="J23" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K23" s="47" t="s">
-        <v>164</v>
+      <c r="K23" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -2472,7 +2481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="120">
+    <row r="24" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>70</v>
       </c>
@@ -2495,8 +2504,8 @@
       <c r="J24" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K24" s="47" t="s">
-        <v>164</v>
+      <c r="K24" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -2510,7 +2519,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="120.75" thickBot="1">
+    <row r="25" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>71</v>
       </c>
@@ -2533,7 +2542,7 @@
       <c r="J25" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K25" s="35" t="s">
         <v>162</v>
       </c>
       <c r="L25" s="25"/>
@@ -2548,7 +2557,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="120.75" thickBot="1">
+    <row r="26" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>72</v>
       </c>
@@ -2571,8 +2580,8 @@
       <c r="J26" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K26" s="47" t="s">
-        <v>161</v>
+      <c r="K26" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -2586,7 +2595,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="120.75" thickBot="1">
+    <row r="27" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
         <v>73</v>
       </c>
@@ -2609,7 +2618,9 @@
       <c r="J27" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="47"/>
+      <c r="K27" s="35" t="s">
+        <v>162</v>
+      </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
@@ -2622,7 +2633,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="120.75" thickBot="1">
+    <row r="28" spans="1:20" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
         <v>74</v>
       </c>
@@ -2645,8 +2656,8 @@
       <c r="J28" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="K28" s="47" t="s">
-        <v>161</v>
+      <c r="K28" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -2660,1096 +2671,1096 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="90.75" customHeight="1">
-      <c r="A29" s="48">
+    <row r="29" spans="1:20" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36">
         <v>369</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="50">
+      <c r="F29" s="38">
         <v>45265</v>
       </c>
-      <c r="G29" s="51" t="s">
+      <c r="G29" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="I29" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="53" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="52" t="s">
+      <c r="J29" s="40" t="s">
         <v>65</v>
       </c>
       <c r="T29" s="13"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T30" s="13"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T31" s="13"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="20:20">
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="20:20">
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T34" s="13"/>
     </row>
-    <row r="35" spans="20:20">
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T35" s="13"/>
     </row>
-    <row r="36" spans="20:20">
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T36" s="13"/>
     </row>
-    <row r="37" spans="20:20">
+    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T37" s="13"/>
     </row>
-    <row r="38" spans="20:20">
+    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T38" s="13"/>
     </row>
-    <row r="39" spans="20:20">
+    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T39" s="13"/>
     </row>
-    <row r="40" spans="20:20">
+    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T40" s="13"/>
     </row>
-    <row r="41" spans="20:20">
+    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T41" s="13"/>
     </row>
-    <row r="42" spans="20:20">
+    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T42" s="13"/>
     </row>
-    <row r="43" spans="20:20">
+    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T43" s="13"/>
     </row>
-    <row r="44" spans="20:20">
+    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T44" s="13"/>
     </row>
-    <row r="45" spans="20:20">
+    <row r="45" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T45" s="13"/>
     </row>
-    <row r="46" spans="20:20">
+    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T46" s="13"/>
     </row>
-    <row r="47" spans="20:20">
+    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="20:20">
+    <row r="48" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T48" s="13"/>
     </row>
-    <row r="49" spans="20:20">
+    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T49" s="13"/>
     </row>
-    <row r="50" spans="20:20">
+    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T50" s="13"/>
     </row>
-    <row r="51" spans="20:20">
+    <row r="51" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T51" s="13"/>
     </row>
-    <row r="52" spans="20:20">
+    <row r="52" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T52" s="13"/>
     </row>
-    <row r="53" spans="20:20">
+    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T53" s="13"/>
     </row>
-    <row r="54" spans="20:20">
+    <row r="54" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T54" s="13"/>
     </row>
-    <row r="55" spans="20:20">
+    <row r="55" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T55" s="13"/>
     </row>
-    <row r="56" spans="20:20">
+    <row r="56" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T56" s="13"/>
     </row>
-    <row r="57" spans="20:20">
+    <row r="57" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T57" s="13"/>
     </row>
-    <row r="58" spans="20:20">
+    <row r="58" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T58" s="13"/>
     </row>
-    <row r="59" spans="20:20">
+    <row r="59" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T59" s="13"/>
     </row>
-    <row r="60" spans="20:20">
+    <row r="60" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T60" s="13"/>
     </row>
-    <row r="61" spans="20:20">
+    <row r="61" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T61" s="13"/>
     </row>
-    <row r="62" spans="20:20">
+    <row r="62" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T62" s="13"/>
     </row>
-    <row r="63" spans="20:20">
+    <row r="63" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T63" s="13"/>
     </row>
-    <row r="64" spans="20:20">
+    <row r="64" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T64" s="13"/>
     </row>
-    <row r="65" spans="20:20">
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T65" s="13"/>
     </row>
-    <row r="66" spans="20:20">
+    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T66" s="13"/>
     </row>
-    <row r="67" spans="20:20">
+    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T67" s="13"/>
     </row>
-    <row r="68" spans="20:20">
+    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T68" s="13"/>
     </row>
-    <row r="69" spans="20:20">
+    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T69" s="13"/>
     </row>
-    <row r="70" spans="20:20">
+    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T70" s="13"/>
     </row>
-    <row r="71" spans="20:20">
+    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T71" s="13"/>
     </row>
-    <row r="72" spans="20:20">
+    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T72" s="13"/>
     </row>
-    <row r="73" spans="20:20">
+    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T73" s="13"/>
     </row>
-    <row r="74" spans="20:20">
+    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T74" s="13"/>
     </row>
-    <row r="75" spans="20:20">
+    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T75" s="13"/>
     </row>
-    <row r="76" spans="20:20">
+    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T76" s="13"/>
     </row>
-    <row r="77" spans="20:20">
+    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T77" s="13"/>
     </row>
-    <row r="78" spans="20:20">
+    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T78" s="13"/>
     </row>
-    <row r="79" spans="20:20">
+    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T79" s="13"/>
     </row>
-    <row r="80" spans="20:20">
+    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T80" s="13"/>
     </row>
-    <row r="81" spans="20:20">
+    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T81" s="13"/>
     </row>
-    <row r="82" spans="20:20">
+    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="20:20">
+    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="20:20">
+    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="20:20">
+    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="20:20">
+    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T86" s="13"/>
     </row>
-    <row r="87" spans="20:20">
+    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T87" s="13"/>
     </row>
-    <row r="88" spans="20:20">
+    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T88" s="13"/>
     </row>
-    <row r="89" spans="20:20">
+    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T89" s="13"/>
     </row>
-    <row r="90" spans="20:20">
+    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T90" s="13"/>
     </row>
-    <row r="91" spans="20:20">
+    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T91" s="13"/>
     </row>
-    <row r="92" spans="20:20">
+    <row r="92" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T92" s="13"/>
     </row>
-    <row r="93" spans="20:20">
+    <row r="93" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T93" s="13"/>
     </row>
-    <row r="94" spans="20:20">
+    <row r="94" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="20:20">
+    <row r="95" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T95" s="13"/>
     </row>
-    <row r="96" spans="20:20">
+    <row r="96" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T96" s="13"/>
     </row>
-    <row r="97" spans="20:20">
+    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T97" s="13"/>
     </row>
-    <row r="98" spans="20:20">
+    <row r="98" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T98" s="13"/>
     </row>
-    <row r="99" spans="20:20">
+    <row r="99" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T99" s="13"/>
     </row>
-    <row r="100" spans="20:20">
+    <row r="100" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T100" s="13"/>
     </row>
-    <row r="101" spans="20:20">
+    <row r="101" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T101" s="13"/>
     </row>
-    <row r="102" spans="20:20">
+    <row r="102" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T102" s="13"/>
     </row>
-    <row r="103" spans="20:20">
+    <row r="103" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T103" s="13"/>
     </row>
-    <row r="104" spans="20:20">
+    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T104" s="13"/>
     </row>
-    <row r="105" spans="20:20">
+    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T105" s="13"/>
     </row>
-    <row r="106" spans="20:20">
+    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T106" s="13"/>
     </row>
-    <row r="107" spans="20:20">
+    <row r="107" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T107" s="13"/>
     </row>
-    <row r="108" spans="20:20">
+    <row r="108" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T108" s="13"/>
     </row>
-    <row r="109" spans="20:20">
+    <row r="109" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T109" s="13"/>
     </row>
-    <row r="110" spans="20:20">
+    <row r="110" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T110" s="13"/>
     </row>
-    <row r="111" spans="20:20">
+    <row r="111" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T111" s="13"/>
     </row>
-    <row r="112" spans="20:20">
+    <row r="112" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T112" s="13"/>
     </row>
-    <row r="113" spans="20:20">
+    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T113" s="13"/>
     </row>
-    <row r="114" spans="20:20">
+    <row r="114" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T114" s="13"/>
     </row>
-    <row r="115" spans="20:20">
+    <row r="115" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T115" s="13"/>
     </row>
-    <row r="116" spans="20:20">
+    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T116" s="13"/>
     </row>
-    <row r="117" spans="20:20">
+    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T117" s="13"/>
     </row>
-    <row r="118" spans="20:20">
+    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T118" s="13"/>
     </row>
-    <row r="119" spans="20:20">
+    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T119" s="13"/>
     </row>
-    <row r="120" spans="20:20">
+    <row r="120" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T120" s="13"/>
     </row>
-    <row r="121" spans="20:20">
+    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T121" s="13"/>
     </row>
-    <row r="122" spans="20:20">
+    <row r="122" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T122" s="13"/>
     </row>
-    <row r="123" spans="20:20">
+    <row r="123" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T123" s="13"/>
     </row>
-    <row r="124" spans="20:20">
+    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T124" s="13"/>
     </row>
-    <row r="125" spans="20:20">
+    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T125" s="13"/>
     </row>
-    <row r="126" spans="20:20">
+    <row r="126" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T126" s="13"/>
     </row>
-    <row r="127" spans="20:20">
+    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T127" s="13"/>
     </row>
-    <row r="128" spans="20:20">
+    <row r="128" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T128" s="13"/>
     </row>
-    <row r="129" spans="20:20">
+    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T129" s="13"/>
     </row>
-    <row r="130" spans="20:20">
+    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T130" s="13"/>
     </row>
-    <row r="131" spans="20:20">
+    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T131" s="13"/>
     </row>
-    <row r="132" spans="20:20">
+    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T132" s="13"/>
     </row>
-    <row r="133" spans="20:20">
+    <row r="133" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T133" s="13"/>
     </row>
-    <row r="134" spans="20:20">
+    <row r="134" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T134" s="13"/>
     </row>
-    <row r="135" spans="20:20">
+    <row r="135" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T135" s="13"/>
     </row>
-    <row r="136" spans="20:20">
+    <row r="136" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T136" s="13"/>
     </row>
-    <row r="137" spans="20:20">
+    <row r="137" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T137" s="13"/>
     </row>
-    <row r="138" spans="20:20">
+    <row r="138" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T138" s="13"/>
     </row>
-    <row r="139" spans="20:20">
+    <row r="139" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T139" s="13"/>
     </row>
-    <row r="140" spans="20:20">
+    <row r="140" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T140" s="13"/>
     </row>
-    <row r="141" spans="20:20">
+    <row r="141" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T141" s="13"/>
     </row>
-    <row r="142" spans="20:20">
+    <row r="142" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T142" s="13"/>
     </row>
-    <row r="143" spans="20:20">
+    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T143" s="13"/>
     </row>
-    <row r="144" spans="20:20">
+    <row r="144" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T144" s="13"/>
     </row>
-    <row r="145" spans="20:20">
+    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T145" s="13"/>
     </row>
-    <row r="146" spans="20:20">
+    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T146" s="13"/>
     </row>
-    <row r="147" spans="20:20">
+    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T147" s="13"/>
     </row>
-    <row r="148" spans="20:20">
+    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T148" s="13"/>
     </row>
-    <row r="149" spans="20:20">
+    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T149" s="13"/>
     </row>
-    <row r="150" spans="20:20">
+    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T150" s="13"/>
     </row>
-    <row r="151" spans="20:20">
+    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T151" s="13"/>
     </row>
-    <row r="152" spans="20:20">
+    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T152" s="13"/>
     </row>
-    <row r="153" spans="20:20">
+    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T153" s="13"/>
     </row>
-    <row r="154" spans="20:20">
+    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T154" s="13"/>
     </row>
-    <row r="155" spans="20:20">
+    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T155" s="13"/>
     </row>
-    <row r="156" spans="20:20">
+    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T156" s="13"/>
     </row>
-    <row r="157" spans="20:20">
+    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T157" s="13"/>
     </row>
-    <row r="158" spans="20:20">
+    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T158" s="13"/>
     </row>
-    <row r="159" spans="20:20">
+    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T159" s="13"/>
     </row>
-    <row r="160" spans="20:20">
+    <row r="160" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T160" s="13"/>
     </row>
-    <row r="161" spans="20:20">
+    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T161" s="13"/>
     </row>
-    <row r="162" spans="20:20">
+    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T162" s="13"/>
     </row>
-    <row r="163" spans="20:20">
+    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T163" s="13"/>
     </row>
-    <row r="164" spans="20:20">
+    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T164" s="13"/>
     </row>
-    <row r="165" spans="20:20">
+    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T165" s="13"/>
     </row>
-    <row r="166" spans="20:20">
+    <row r="166" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T166" s="13"/>
     </row>
-    <row r="167" spans="20:20">
+    <row r="167" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="20:20">
+    <row r="168" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="20:20">
+    <row r="169" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T169" s="13"/>
     </row>
-    <row r="170" spans="20:20">
+    <row r="170" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T170" s="13"/>
     </row>
-    <row r="171" spans="20:20">
+    <row r="171" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T171" s="13"/>
     </row>
-    <row r="172" spans="20:20">
+    <row r="172" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T172" s="13"/>
     </row>
-    <row r="173" spans="20:20">
+    <row r="173" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T173" s="13"/>
     </row>
-    <row r="174" spans="20:20">
+    <row r="174" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T174" s="13"/>
     </row>
-    <row r="175" spans="20:20">
+    <row r="175" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T175" s="13"/>
     </row>
-    <row r="176" spans="20:20">
+    <row r="176" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T176" s="13"/>
     </row>
-    <row r="177" spans="20:20">
+    <row r="177" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T177" s="13"/>
     </row>
-    <row r="178" spans="20:20">
+    <row r="178" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T178" s="13"/>
     </row>
-    <row r="179" spans="20:20">
+    <row r="179" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T179" s="13"/>
     </row>
-    <row r="180" spans="20:20">
+    <row r="180" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T180" s="13"/>
     </row>
-    <row r="181" spans="20:20">
+    <row r="181" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T181" s="13"/>
     </row>
-    <row r="182" spans="20:20">
+    <row r="182" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T182" s="13"/>
     </row>
-    <row r="183" spans="20:20">
+    <row r="183" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T183" s="13"/>
     </row>
-    <row r="184" spans="20:20">
+    <row r="184" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T184" s="13"/>
     </row>
-    <row r="185" spans="20:20">
+    <row r="185" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T185" s="13"/>
     </row>
-    <row r="186" spans="20:20">
+    <row r="186" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T186" s="13"/>
     </row>
-    <row r="187" spans="20:20">
+    <row r="187" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T187" s="13"/>
     </row>
-    <row r="188" spans="20:20">
+    <row r="188" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T188" s="13"/>
     </row>
-    <row r="189" spans="20:20">
+    <row r="189" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T189" s="13"/>
     </row>
-    <row r="190" spans="20:20">
+    <row r="190" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T190" s="13"/>
     </row>
-    <row r="191" spans="20:20">
+    <row r="191" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T191" s="13"/>
     </row>
-    <row r="192" spans="20:20">
+    <row r="192" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T192" s="13"/>
     </row>
-    <row r="193" spans="20:20">
+    <row r="193" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T193" s="13"/>
     </row>
-    <row r="194" spans="20:20">
+    <row r="194" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T194" s="13"/>
     </row>
-    <row r="195" spans="20:20">
+    <row r="195" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T195" s="13"/>
     </row>
-    <row r="196" spans="20:20">
+    <row r="196" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T196" s="13"/>
     </row>
-    <row r="197" spans="20:20">
+    <row r="197" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T197" s="13"/>
     </row>
-    <row r="198" spans="20:20">
+    <row r="198" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T198" s="13"/>
     </row>
-    <row r="199" spans="20:20">
+    <row r="199" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T199" s="13"/>
     </row>
-    <row r="200" spans="20:20">
+    <row r="200" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T200" s="13"/>
     </row>
-    <row r="201" spans="20:20">
+    <row r="201" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T201" s="13"/>
     </row>
-    <row r="202" spans="20:20">
+    <row r="202" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T202" s="13"/>
     </row>
-    <row r="203" spans="20:20">
+    <row r="203" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T203" s="13"/>
     </row>
-    <row r="204" spans="20:20">
+    <row r="204" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T204" s="13"/>
     </row>
-    <row r="205" spans="20:20">
+    <row r="205" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T205" s="13"/>
     </row>
-    <row r="206" spans="20:20">
+    <row r="206" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T206" s="13"/>
     </row>
-    <row r="207" spans="20:20">
+    <row r="207" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T207" s="13"/>
     </row>
-    <row r="208" spans="20:20">
+    <row r="208" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T208" s="13"/>
     </row>
-    <row r="209" spans="20:20">
+    <row r="209" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T209" s="13"/>
     </row>
-    <row r="210" spans="20:20">
+    <row r="210" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T210" s="13"/>
     </row>
-    <row r="211" spans="20:20">
+    <row r="211" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T211" s="13"/>
     </row>
-    <row r="212" spans="20:20">
+    <row r="212" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T212" s="13"/>
     </row>
-    <row r="213" spans="20:20">
+    <row r="213" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T213" s="13"/>
     </row>
-    <row r="214" spans="20:20">
+    <row r="214" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T214" s="13"/>
     </row>
-    <row r="215" spans="20:20">
+    <row r="215" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T215" s="13"/>
     </row>
-    <row r="216" spans="20:20">
+    <row r="216" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T216" s="13"/>
     </row>
-    <row r="217" spans="20:20">
+    <row r="217" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T217" s="13"/>
     </row>
-    <row r="218" spans="20:20">
+    <row r="218" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T218" s="13"/>
     </row>
-    <row r="219" spans="20:20">
+    <row r="219" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T219" s="13"/>
     </row>
-    <row r="220" spans="20:20">
+    <row r="220" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T220" s="13"/>
     </row>
-    <row r="221" spans="20:20">
+    <row r="221" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T221" s="13"/>
     </row>
-    <row r="222" spans="20:20">
+    <row r="222" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T222" s="13"/>
     </row>
-    <row r="223" spans="20:20">
+    <row r="223" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T223" s="13"/>
     </row>
-    <row r="224" spans="20:20">
+    <row r="224" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T224" s="13"/>
     </row>
-    <row r="225" spans="20:20">
+    <row r="225" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T225" s="13"/>
     </row>
-    <row r="226" spans="20:20">
+    <row r="226" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T226" s="13"/>
     </row>
-    <row r="227" spans="20:20">
+    <row r="227" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T227" s="13"/>
     </row>
-    <row r="228" spans="20:20">
+    <row r="228" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T228" s="13"/>
     </row>
-    <row r="229" spans="20:20">
+    <row r="229" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T229" s="13"/>
     </row>
-    <row r="230" spans="20:20">
+    <row r="230" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T230" s="13"/>
     </row>
-    <row r="231" spans="20:20">
+    <row r="231" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T231" s="13"/>
     </row>
-    <row r="232" spans="20:20">
+    <row r="232" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T232" s="13"/>
     </row>
-    <row r="233" spans="20:20">
+    <row r="233" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T233" s="13"/>
     </row>
-    <row r="234" spans="20:20">
+    <row r="234" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T234" s="13"/>
     </row>
-    <row r="235" spans="20:20">
+    <row r="235" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T235" s="13"/>
     </row>
-    <row r="236" spans="20:20">
+    <row r="236" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T236" s="13"/>
     </row>
-    <row r="237" spans="20:20">
+    <row r="237" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T237" s="13"/>
     </row>
-    <row r="238" spans="20:20">
+    <row r="238" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T238" s="13"/>
     </row>
-    <row r="239" spans="20:20">
+    <row r="239" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T239" s="13"/>
     </row>
-    <row r="240" spans="20:20">
+    <row r="240" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T240" s="13"/>
     </row>
-    <row r="241" spans="20:20">
+    <row r="241" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T241" s="13"/>
     </row>
-    <row r="242" spans="20:20">
+    <row r="242" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T242" s="13"/>
     </row>
-    <row r="243" spans="20:20">
+    <row r="243" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T243" s="13"/>
     </row>
-    <row r="244" spans="20:20">
+    <row r="244" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T244" s="13"/>
     </row>
-    <row r="245" spans="20:20">
+    <row r="245" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T245" s="13"/>
     </row>
-    <row r="246" spans="20:20">
+    <row r="246" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T246" s="13"/>
     </row>
-    <row r="247" spans="20:20">
+    <row r="247" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T247" s="13"/>
     </row>
-    <row r="248" spans="20:20">
+    <row r="248" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T248" s="13"/>
     </row>
-    <row r="249" spans="20:20">
+    <row r="249" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T249" s="13"/>
     </row>
-    <row r="250" spans="20:20">
+    <row r="250" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T250" s="13"/>
     </row>
-    <row r="251" spans="20:20">
+    <row r="251" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T251" s="13"/>
     </row>
-    <row r="252" spans="20:20">
+    <row r="252" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T252" s="13"/>
     </row>
-    <row r="253" spans="20:20">
+    <row r="253" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T253" s="13"/>
     </row>
-    <row r="254" spans="20:20">
+    <row r="254" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T254" s="13"/>
     </row>
-    <row r="255" spans="20:20">
+    <row r="255" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T255" s="13"/>
     </row>
-    <row r="256" spans="20:20">
+    <row r="256" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T256" s="13"/>
     </row>
-    <row r="257" spans="20:20">
+    <row r="257" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T257" s="13"/>
     </row>
-    <row r="258" spans="20:20">
+    <row r="258" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T258" s="13"/>
     </row>
-    <row r="259" spans="20:20">
+    <row r="259" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T259" s="13"/>
     </row>
-    <row r="260" spans="20:20">
+    <row r="260" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T260" s="13"/>
     </row>
-    <row r="261" spans="20:20">
+    <row r="261" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T261" s="13"/>
     </row>
-    <row r="262" spans="20:20">
+    <row r="262" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T262" s="13"/>
     </row>
-    <row r="263" spans="20:20">
+    <row r="263" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T263" s="13"/>
     </row>
-    <row r="264" spans="20:20">
+    <row r="264" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T264" s="13"/>
     </row>
-    <row r="265" spans="20:20">
+    <row r="265" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T265" s="13"/>
     </row>
-    <row r="266" spans="20:20">
+    <row r="266" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T266" s="13"/>
     </row>
-    <row r="267" spans="20:20">
+    <row r="267" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T267" s="13"/>
     </row>
-    <row r="268" spans="20:20">
+    <row r="268" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T268" s="13"/>
     </row>
-    <row r="269" spans="20:20">
+    <row r="269" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T269" s="13"/>
     </row>
-    <row r="270" spans="20:20">
+    <row r="270" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T270" s="13"/>
     </row>
-    <row r="271" spans="20:20">
+    <row r="271" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T271" s="13"/>
     </row>
-    <row r="272" spans="20:20">
+    <row r="272" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T272" s="13"/>
     </row>
-    <row r="273" spans="20:20">
+    <row r="273" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T273" s="13"/>
     </row>
-    <row r="274" spans="20:20">
+    <row r="274" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T274" s="13"/>
     </row>
-    <row r="275" spans="20:20">
+    <row r="275" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T275" s="13"/>
     </row>
-    <row r="276" spans="20:20">
+    <row r="276" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T276" s="13"/>
     </row>
-    <row r="277" spans="20:20">
+    <row r="277" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T277" s="13"/>
     </row>
-    <row r="278" spans="20:20">
+    <row r="278" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T278" s="13"/>
     </row>
-    <row r="279" spans="20:20">
+    <row r="279" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T279" s="13"/>
     </row>
-    <row r="280" spans="20:20">
+    <row r="280" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T280" s="13"/>
     </row>
-    <row r="281" spans="20:20">
+    <row r="281" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T281" s="13"/>
     </row>
-    <row r="282" spans="20:20">
+    <row r="282" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T282" s="13"/>
     </row>
-    <row r="283" spans="20:20">
+    <row r="283" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T283" s="13"/>
     </row>
-    <row r="284" spans="20:20">
+    <row r="284" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T284" s="13"/>
     </row>
-    <row r="285" spans="20:20">
+    <row r="285" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T285" s="13"/>
     </row>
-    <row r="286" spans="20:20">
+    <row r="286" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T286" s="13"/>
     </row>
-    <row r="287" spans="20:20">
+    <row r="287" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T287" s="13"/>
     </row>
-    <row r="288" spans="20:20">
+    <row r="288" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T288" s="13"/>
     </row>
-    <row r="289" spans="20:20">
+    <row r="289" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T289" s="13"/>
     </row>
-    <row r="290" spans="20:20">
+    <row r="290" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T290" s="13"/>
     </row>
-    <row r="291" spans="20:20">
+    <row r="291" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T291" s="13"/>
     </row>
-    <row r="292" spans="20:20">
+    <row r="292" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T292" s="13"/>
     </row>
-    <row r="293" spans="20:20">
+    <row r="293" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T293" s="13"/>
     </row>
-    <row r="294" spans="20:20">
+    <row r="294" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T294" s="13"/>
     </row>
-    <row r="295" spans="20:20">
+    <row r="295" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T295" s="13"/>
     </row>
-    <row r="296" spans="20:20">
+    <row r="296" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T296" s="13"/>
     </row>
-    <row r="297" spans="20:20">
+    <row r="297" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T297" s="13"/>
     </row>
-    <row r="298" spans="20:20">
+    <row r="298" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T298" s="13"/>
     </row>
-    <row r="299" spans="20:20">
+    <row r="299" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T299" s="13"/>
     </row>
-    <row r="300" spans="20:20">
+    <row r="300" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T300" s="13"/>
     </row>
-    <row r="301" spans="20:20">
+    <row r="301" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T301" s="13"/>
     </row>
-    <row r="302" spans="20:20">
+    <row r="302" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T302" s="13"/>
     </row>
-    <row r="303" spans="20:20">
+    <row r="303" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T303" s="13"/>
     </row>
-    <row r="304" spans="20:20">
+    <row r="304" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T304" s="13"/>
     </row>
-    <row r="305" spans="20:20">
+    <row r="305" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T305" s="13"/>
     </row>
-    <row r="306" spans="20:20">
+    <row r="306" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T306" s="13"/>
     </row>
-    <row r="307" spans="20:20">
+    <row r="307" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T307" s="13"/>
     </row>
-    <row r="308" spans="20:20">
+    <row r="308" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T308" s="13"/>
     </row>
-    <row r="309" spans="20:20">
+    <row r="309" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T309" s="13"/>
     </row>
-    <row r="310" spans="20:20">
+    <row r="310" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T310" s="13"/>
     </row>
-    <row r="311" spans="20:20">
+    <row r="311" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T311" s="13"/>
     </row>
-    <row r="312" spans="20:20">
+    <row r="312" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T312" s="13"/>
     </row>
-    <row r="313" spans="20:20">
+    <row r="313" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T313" s="13"/>
     </row>
-    <row r="314" spans="20:20">
+    <row r="314" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T314" s="13"/>
     </row>
-    <row r="315" spans="20:20">
+    <row r="315" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T315" s="13"/>
     </row>
-    <row r="316" spans="20:20">
+    <row r="316" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T316" s="13"/>
     </row>
-    <row r="317" spans="20:20">
+    <row r="317" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T317" s="13"/>
     </row>
-    <row r="318" spans="20:20">
+    <row r="318" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T318" s="13"/>
     </row>
-    <row r="319" spans="20:20">
+    <row r="319" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T319" s="13"/>
     </row>
-    <row r="320" spans="20:20">
+    <row r="320" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T320" s="13"/>
     </row>
-    <row r="321" spans="20:20">
+    <row r="321" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T321" s="13"/>
     </row>
-    <row r="322" spans="20:20">
+    <row r="322" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T322" s="13"/>
     </row>
-    <row r="323" spans="20:20">
+    <row r="323" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T323" s="13"/>
     </row>
-    <row r="324" spans="20:20">
+    <row r="324" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T324" s="13"/>
     </row>
-    <row r="325" spans="20:20">
+    <row r="325" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T325" s="13"/>
     </row>
-    <row r="326" spans="20:20">
+    <row r="326" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T326" s="13"/>
     </row>
-    <row r="327" spans="20:20">
+    <row r="327" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T327" s="13"/>
     </row>
-    <row r="328" spans="20:20">
+    <row r="328" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T328" s="13"/>
     </row>
-    <row r="329" spans="20:20">
+    <row r="329" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T329" s="13"/>
     </row>
-    <row r="330" spans="20:20">
+    <row r="330" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T330" s="13"/>
     </row>
-    <row r="331" spans="20:20">
+    <row r="331" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T331" s="13"/>
     </row>
-    <row r="332" spans="20:20">
+    <row r="332" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T332" s="13"/>
     </row>
-    <row r="333" spans="20:20">
+    <row r="333" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T333" s="13"/>
     </row>
-    <row r="334" spans="20:20">
+    <row r="334" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T334" s="13"/>
     </row>
-    <row r="335" spans="20:20">
+    <row r="335" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T335" s="13"/>
     </row>
-    <row r="336" spans="20:20">
+    <row r="336" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T336" s="13"/>
     </row>
-    <row r="337" spans="20:20">
+    <row r="337" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T337" s="13"/>
     </row>
-    <row r="338" spans="20:20">
+    <row r="338" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T338" s="13"/>
     </row>
-    <row r="339" spans="20:20">
+    <row r="339" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T339" s="13"/>
     </row>
-    <row r="340" spans="20:20">
+    <row r="340" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T340" s="13"/>
     </row>
-    <row r="341" spans="20:20">
+    <row r="341" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T341" s="13"/>
     </row>
-    <row r="342" spans="20:20">
+    <row r="342" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T342" s="13"/>
     </row>
-    <row r="343" spans="20:20">
+    <row r="343" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T343" s="13"/>
     </row>
-    <row r="344" spans="20:20">
+    <row r="344" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T344" s="13"/>
     </row>
-    <row r="345" spans="20:20">
+    <row r="345" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T345" s="13"/>
     </row>
-    <row r="346" spans="20:20">
+    <row r="346" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T346" s="13"/>
     </row>
-    <row r="347" spans="20:20">
+    <row r="347" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T347" s="13"/>
     </row>
-    <row r="348" spans="20:20">
+    <row r="348" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T348" s="13"/>
     </row>
-    <row r="349" spans="20:20">
+    <row r="349" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T349" s="13"/>
     </row>
-    <row r="350" spans="20:20">
+    <row r="350" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T350" s="13"/>
     </row>
-    <row r="351" spans="20:20">
+    <row r="351" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T351" s="13"/>
     </row>
-    <row r="352" spans="20:20">
+    <row r="352" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T352" s="13"/>
     </row>
-    <row r="353" spans="20:20">
+    <row r="353" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T353" s="13"/>
     </row>
-    <row r="354" spans="20:20">
+    <row r="354" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T354" s="13"/>
     </row>
-    <row r="355" spans="20:20">
+    <row r="355" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T355" s="13"/>
     </row>
-    <row r="356" spans="20:20">
+    <row r="356" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T356" s="13"/>
     </row>
-    <row r="357" spans="20:20">
+    <row r="357" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T357" s="13"/>
     </row>
-    <row r="358" spans="20:20">
+    <row r="358" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T358" s="13"/>
     </row>
-    <row r="359" spans="20:20">
+    <row r="359" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T359" s="13"/>
     </row>
-    <row r="360" spans="20:20">
+    <row r="360" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T360" s="13"/>
     </row>
-    <row r="361" spans="20:20">
+    <row r="361" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T361" s="13"/>
     </row>
-    <row r="362" spans="20:20">
+    <row r="362" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T362" s="13"/>
     </row>
-    <row r="363" spans="20:20">
+    <row r="363" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T363" s="13"/>
     </row>
-    <row r="364" spans="20:20">
+    <row r="364" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T364" s="13"/>
     </row>
-    <row r="365" spans="20:20">
+    <row r="365" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T365" s="13"/>
     </row>
-    <row r="366" spans="20:20">
+    <row r="366" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T366" s="13"/>
     </row>
-    <row r="367" spans="20:20">
+    <row r="367" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T367" s="13"/>
     </row>
-    <row r="368" spans="20:20">
+    <row r="368" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T368" s="13"/>
     </row>
-    <row r="369" spans="20:20">
+    <row r="369" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T369" s="13"/>
     </row>
-    <row r="370" spans="20:20">
+    <row r="370" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T370" s="13"/>
     </row>
-    <row r="371" spans="20:20">
+    <row r="371" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T371" s="13"/>
     </row>
-    <row r="372" spans="20:20">
+    <row r="372" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T372" s="13"/>
     </row>
-    <row r="373" spans="20:20">
+    <row r="373" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T373" s="13"/>
     </row>
-    <row r="374" spans="20:20">
+    <row r="374" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T374" s="13"/>
     </row>
-    <row r="375" spans="20:20">
+    <row r="375" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T375" s="13"/>
     </row>
-    <row r="376" spans="20:20">
+    <row r="376" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T376" s="13"/>
     </row>
-    <row r="377" spans="20:20">
+    <row r="377" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T377" s="13"/>
     </row>
-    <row r="378" spans="20:20">
+    <row r="378" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T378" s="13"/>
     </row>
-    <row r="379" spans="20:20">
+    <row r="379" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T379" s="13"/>
     </row>
-    <row r="380" spans="20:20">
+    <row r="380" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T380" s="13"/>
     </row>
-    <row r="381" spans="20:20">
+    <row r="381" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T381" s="13"/>
     </row>
-    <row r="382" spans="20:20">
+    <row r="382" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T382" s="13"/>
     </row>
-    <row r="383" spans="20:20">
+    <row r="383" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T383" s="13"/>
     </row>
   </sheetData>
@@ -3796,7 +3807,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
@@ -3805,7 +3816,7 @@
     <col min="5" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1">
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>26</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1">
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25" customHeight="1">
+    <row r="3" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>47</v>
       </c>
@@ -3847,7 +3858,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>56</v>
       </c>
@@ -3861,7 +3872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.25" customHeight="1">
+    <row r="5" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
@@ -3875,7 +3886,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.25" customHeight="1">
+    <row r="6" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>58</v>
       </c>
@@ -3889,7 +3900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -3903,7 +3914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>63</v>
       </c>
@@ -3917,7 +3928,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>62</v>
       </c>
@@ -3931,7 +3942,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>111</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="14.25" customHeight="1">
+    <row r="11" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>45</v>
       </c>
@@ -3959,7 +3970,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>47</v>
       </c>
@@ -3973,7 +3984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="14.25" customHeight="1">
+    <row r="13" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>56</v>
       </c>
@@ -3987,7 +3998,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25" customHeight="1">
+    <row r="14" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>57</v>
       </c>
@@ -4001,7 +4012,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="14.25" customHeight="1">
+    <row r="15" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
@@ -4015,7 +4026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.25" customHeight="1">
+    <row r="16" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>59</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.25" customHeight="1">
+    <row r="17" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
@@ -4043,7 +4054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.5" customHeight="1">
+    <row r="18" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>62</v>
       </c>
@@ -4057,7 +4068,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.25" customHeight="1">
+    <row r="19" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>45</v>
       </c>
@@ -4071,7 +4082,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.25" customHeight="1">
+    <row r="20" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>47</v>
       </c>
@@ -4085,7 +4096,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" customHeight="1">
+    <row r="21" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>56</v>
       </c>
@@ -4099,7 +4110,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.25" customHeight="1">
+    <row r="22" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>57</v>
       </c>
@@ -4113,7 +4124,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.25" customHeight="1">
+    <row r="23" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
@@ -4127,7 +4138,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.25" customHeight="1">
+    <row r="24" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>59</v>
       </c>
@@ -4141,7 +4152,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.25" customHeight="1">
+    <row r="25" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>63</v>
       </c>
@@ -4155,7 +4166,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.25" customHeight="1">
+    <row r="26" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>62</v>
       </c>
@@ -4169,7 +4180,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.25" customHeight="1">
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
@@ -4183,7 +4194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.25" customHeight="1">
+    <row r="28" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>47</v>
       </c>
@@ -4197,7 +4208,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.25" customHeight="1">
+    <row r="29" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>56</v>
       </c>
@@ -4211,7 +4222,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.25" customHeight="1">
+    <row r="30" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>57</v>
       </c>
@@ -4225,7 +4236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.25" customHeight="1">
+    <row r="31" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>58</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.25" customHeight="1">
+    <row r="32" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>59</v>
       </c>
@@ -4253,7 +4264,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.25" customHeight="1">
+    <row r="33" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>63</v>
       </c>
@@ -4267,7 +4278,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.25" customHeight="1">
+    <row r="34" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>62</v>
       </c>
@@ -4281,7 +4292,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.25" customHeight="1">
+    <row r="35" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>45</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.25" customHeight="1">
+    <row r="36" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>47</v>
       </c>
@@ -4309,7 +4320,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.25" customHeight="1">
+    <row r="37" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>56</v>
       </c>
@@ -4323,7 +4334,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.25" customHeight="1">
+    <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>57</v>
       </c>
@@ -4337,7 +4348,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.25" customHeight="1">
+    <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>58</v>
       </c>
@@ -4351,7 +4362,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.25" customHeight="1">
+    <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
@@ -4365,7 +4376,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.25" customHeight="1">
+    <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>63</v>
       </c>
@@ -4379,7 +4390,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.25" customHeight="1">
+    <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>62</v>
       </c>
@@ -4393,7 +4404,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.25" customHeight="1">
+    <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>45</v>
       </c>
@@ -4407,7 +4418,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.25" customHeight="1">
+    <row r="44" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>47</v>
       </c>
@@ -4421,7 +4432,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.25" customHeight="1">
+    <row r="45" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>56</v>
       </c>
@@ -4435,7 +4446,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.25" customHeight="1">
+    <row r="46" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>57</v>
       </c>
@@ -4449,7 +4460,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.25" customHeight="1">
+    <row r="47" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>58</v>
       </c>
@@ -4463,7 +4474,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.25" customHeight="1">
+    <row r="48" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>59</v>
       </c>
@@ -4477,7 +4488,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.25" customHeight="1">
+    <row r="49" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>63</v>
       </c>
@@ -4491,7 +4502,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.25" customHeight="1">
+    <row r="50" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>62</v>
       </c>
@@ -4505,956 +4516,956 @@
         <v>319</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="52" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="53" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="54" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="55" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="56" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="57" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="58" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="59" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="60" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="61" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="62" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="63" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="64" spans="1:4" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5467,14 +5478,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="6" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.25" customHeight="1">
+    <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
@@ -5482,7 +5493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>143</v>
       </c>
@@ -5490,7 +5501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.25" customHeight="1">
+    <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>144</v>
       </c>
@@ -5498,1006 +5509,1006 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" customHeight="1">
+    <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.24.24403/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.24.24403/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\LDO\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.24.2440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D9FE9D-54EE-491C-8E87-695AB7FE49D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA9490-77BF-42A7-B84C-5F20E1C541A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -648,33 +648,6 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.7b1aff4c5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-12-05T12:28:00Z</t>
-  </si>
-  <si>
-    <t>b2d982224732fb81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.73bdab365a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-12-05T12:29:00Z</t>
-  </si>
-  <si>
-    <t>75e952a326e59c03</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.352e6760d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-12-05T15:15:00Z</t>
-  </si>
-  <si>
-    <t>5cae216fe805189d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.4a8cce2564^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Riportato errore da applicativo</t>
   </si>
   <si>
@@ -691,6 +664,33 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.ba18a9bb07^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-21T10:08:00Z</t>
+  </si>
+  <si>
+    <t>4135c22bc6ff1bbd</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.26bcd36475^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-21T10:10:00Z</t>
+  </si>
+  <si>
+    <t>04a9b596324ed8be</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.f40ecdc7df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-12-21T10:11:00Z</t>
+  </si>
+  <si>
+    <t>989325b297b9b7ba</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.819e7fcd22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1669,10 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K25" sqref="K25:K28"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,13 +1989,13 @@
         <v>45265</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>65</v>
@@ -2033,13 +2033,13 @@
         <v>45265</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>65</v>
@@ -2077,13 +2077,13 @@
         <v>45265</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>65</v>
@@ -2123,7 +2123,7 @@
         <v>145</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -2159,7 +2159,7 @@
         <v>145</v>
       </c>
       <c r="K15" s="35" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -2197,14 +2197,14 @@
         <v>65</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="25"/>
       <c r="R16" s="26" t="s">
@@ -2239,7 +2239,7 @@
         <v>145</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -2277,7 +2277,7 @@
         <v>145</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -2315,7 +2315,7 @@
         <v>145</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -2353,7 +2353,7 @@
         <v>145</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -2391,7 +2391,7 @@
         <v>145</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -2429,7 +2429,7 @@
         <v>145</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -2467,7 +2467,7 @@
         <v>145</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -2505,7 +2505,7 @@
         <v>145</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -2543,7 +2543,7 @@
         <v>145</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -2581,7 +2581,7 @@
         <v>145</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -2619,7 +2619,7 @@
         <v>145</v>
       </c>
       <c r="K27" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -2657,7 +2657,7 @@
         <v>145</v>
       </c>
       <c r="K28" s="35" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -2688,13 +2688,13 @@
         <v>45265</v>
       </c>
       <c r="G29" s="39" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H29" s="39" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I29" s="41" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="J29" s="40" t="s">
         <v>65</v>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.24.24403/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS SPA/ARGOS/4.24.24403/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Argos\argos\ASF Progetti\LDO\accreditamento\A1#111DEDALUS0000\DEDALUS SPA\ARGOS\4.24.2440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AFA9490-77BF-42A7-B84C-5F20E1C541A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFB46E4-BE01-45D5-A500-73A4C87679DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36285" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -684,13 +684,13 @@
     <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.f40ecdc7df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2023-12-21T10:11:00Z</t>
-  </si>
-  <si>
-    <t>989325b297b9b7ba</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.819e7fcd22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2.16.840.1.113883.2.9.2.90.4.4.9a56f600bd5c3ec4626d0787349fd1574f904b1b188e95c74ad8660761989b87.c38557ec17^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2a306abfd2f250ee</t>
+  </si>
+  <si>
+    <t>2023-12-21T16:36:36Z</t>
   </si>
 </sst>
 </file>
@@ -1669,10 +1669,10 @@
   <dimension ref="A1:T383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,13 +2077,13 @@
         <v>45265</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H13" s="24" t="s">
         <v>165</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>65</v>
